--- a/StructureDefinition-ext-R5-Composition.event.xlsx
+++ b/StructureDefinition-ext-R5-Composition.event.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -505,8 +505,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:detail.extension:concept.id</t>
@@ -528,7 +527,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-ActCode-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-v3-ActCode-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:detail.extension:reference</t>
@@ -543,8 +542,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:detail.extension:reference.id</t>
@@ -559,7 +557,7 @@
     <t>Extension.extension:detail.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -913,7 +911,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="119.875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -924,7 +922,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.56640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
